--- a/tables.xlsx
+++ b/tables.xlsx
@@ -932,28 +932,28 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.6899999999999999</v>
+        <v>-0.78</v>
       </c>
       <c r="C10">
-        <v>-0.57</v>
+        <v>-0.64</v>
       </c>
       <c r="D10">
-        <v>-0.52</v>
+        <v>-0.59</v>
       </c>
       <c r="E10">
-        <v>-1.33</v>
+        <v>-1.51</v>
       </c>
       <c r="F10">
-        <v>-1.42</v>
+        <v>-1.59</v>
       </c>
       <c r="G10">
-        <v>0.35</v>
+        <v>0.06</v>
       </c>
       <c r="H10">
-        <v>-0.5600000000000001</v>
+        <v>-0.63</v>
       </c>
       <c r="I10">
-        <v>-1.21</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -961,28 +961,28 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>4.29</v>
+        <v>4.64</v>
       </c>
       <c r="C11">
-        <v>3.72</v>
+        <v>3.88</v>
       </c>
       <c r="D11">
-        <v>3.56</v>
+        <v>3.68</v>
       </c>
       <c r="E11">
-        <v>12.21</v>
+        <v>14.07</v>
       </c>
       <c r="F11">
-        <v>12.49</v>
+        <v>14.4</v>
       </c>
       <c r="G11">
-        <v>20.97</v>
+        <v>19.27</v>
       </c>
       <c r="H11">
-        <v>3.96</v>
+        <v>4.1</v>
       </c>
       <c r="I11">
-        <v>10.27</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="12" spans="1:9">

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="perf_stats" sheetId="1" r:id="rId1"/>
     <sheet name="fund_matches" sheetId="2" r:id="rId2"/>
+    <sheet name="fama_french" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="192">
   <si>
     <t>JFUAX</t>
   </si>
@@ -306,6 +307,291 @@
   </si>
   <si>
     <t>MXEA</t>
+  </si>
+  <si>
+    <t>JFUAX_excess_returns</t>
+  </si>
+  <si>
+    <t>JLCAX_excess_returns</t>
+  </si>
+  <si>
+    <t>JDEAX_excess_returns</t>
+  </si>
+  <si>
+    <t>OEIAX_excess_returns</t>
+  </si>
+  <si>
+    <t>JFTAX_excess_returns</t>
+  </si>
+  <si>
+    <t>BWIIX_excess_returns</t>
+  </si>
+  <si>
+    <t>BSPIX_excess_returns</t>
+  </si>
+  <si>
+    <t>MAIIX_excess_returns</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>benchmark_excess_returns</t>
+  </si>
+  <si>
+    <t>SMB</t>
+  </si>
+  <si>
+    <t>HML</t>
+  </si>
+  <si>
+    <t>Mom</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>-0.0000</t>
+  </si>
+  <si>
+    <t>(0.0001)</t>
+  </si>
+  <si>
+    <t>1.1935***</t>
+  </si>
+  <si>
+    <t>(0.0217)</t>
+  </si>
+  <si>
+    <t>0.1236***</t>
+  </si>
+  <si>
+    <t>(0.0309)</t>
+  </si>
+  <si>
+    <t>-0.1003***</t>
+  </si>
+  <si>
+    <t>(0.0369)</t>
+  </si>
+  <si>
+    <t>-0.1455***</t>
+  </si>
+  <si>
+    <t>(0.0236)</t>
+  </si>
+  <si>
+    <t>795</t>
+  </si>
+  <si>
+    <t>0.8465</t>
+  </si>
+  <si>
+    <t>-0.0001</t>
+  </si>
+  <si>
+    <t>1.1129***</t>
+  </si>
+  <si>
+    <t>(0.0134)</t>
+  </si>
+  <si>
+    <t>0.1037***</t>
+  </si>
+  <si>
+    <t>(0.0146)</t>
+  </si>
+  <si>
+    <t>-0.0041</t>
+  </si>
+  <si>
+    <t>(0.0210)</t>
+  </si>
+  <si>
+    <t>-0.0051</t>
+  </si>
+  <si>
+    <t>(0.0132)</t>
+  </si>
+  <si>
+    <t>0.9601</t>
+  </si>
+  <si>
+    <t>-0.0001***</t>
+  </si>
+  <si>
+    <t>(0.0000)</t>
+  </si>
+  <si>
+    <t>1.0551***</t>
+  </si>
+  <si>
+    <t>(0.0083)</t>
+  </si>
+  <si>
+    <t>0.0369***</t>
+  </si>
+  <si>
+    <t>(0.0092)</t>
+  </si>
+  <si>
+    <t>-0.0277***</t>
+  </si>
+  <si>
+    <t>(0.0107)</t>
+  </si>
+  <si>
+    <t>-0.0117*</t>
+  </si>
+  <si>
+    <t>(0.0067)</t>
+  </si>
+  <si>
+    <t>0.9838</t>
+  </si>
+  <si>
+    <t>0.0001</t>
+  </si>
+  <si>
+    <t>0.8641***</t>
+  </si>
+  <si>
+    <t>(0.0453)</t>
+  </si>
+  <si>
+    <t>0.0484</t>
+  </si>
+  <si>
+    <t>(0.0594)</t>
+  </si>
+  <si>
+    <t>0.0204</t>
+  </si>
+  <si>
+    <t>(0.0420)</t>
+  </si>
+  <si>
+    <t>-0.0486</t>
+  </si>
+  <si>
+    <t>(0.0310)</t>
+  </si>
+  <si>
+    <t>0.6340</t>
+  </si>
+  <si>
+    <t>0.8523***</t>
+  </si>
+  <si>
+    <t>(0.0434)</t>
+  </si>
+  <si>
+    <t>0.0540</t>
+  </si>
+  <si>
+    <t>(0.0588)</t>
+  </si>
+  <si>
+    <t>0.0335</t>
+  </si>
+  <si>
+    <t>(0.0417)</t>
+  </si>
+  <si>
+    <t>-0.0217</t>
+  </si>
+  <si>
+    <t>(0.0319)</t>
+  </si>
+  <si>
+    <t>0.6293</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>1.0180***</t>
+  </si>
+  <si>
+    <t>(0.0551)</t>
+  </si>
+  <si>
+    <t>0.1143</t>
+  </si>
+  <si>
+    <t>(0.1069)</t>
+  </si>
+  <si>
+    <t>-0.0130</t>
+  </si>
+  <si>
+    <t>(0.0161)</t>
+  </si>
+  <si>
+    <t>0.0182</t>
+  </si>
+  <si>
+    <t>(0.0200)</t>
+  </si>
+  <si>
+    <t>692</t>
+  </si>
+  <si>
+    <t>0.6635</t>
+  </si>
+  <si>
+    <t>0.9978***</t>
+  </si>
+  <si>
+    <t>(0.0009)</t>
+  </si>
+  <si>
+    <t>-0.0011</t>
+  </si>
+  <si>
+    <t>(0.0029)</t>
+  </si>
+  <si>
+    <t>-0.0006</t>
+  </si>
+  <si>
+    <t>0.0004</t>
+  </si>
+  <si>
+    <t>(0.0005)</t>
+  </si>
+  <si>
+    <t>0.9990</t>
+  </si>
+  <si>
+    <t>0.8419***</t>
+  </si>
+  <si>
+    <t>(0.0382)</t>
+  </si>
+  <si>
+    <t>0.0287</t>
+  </si>
+  <si>
+    <t>(0.0570)</t>
+  </si>
+  <si>
+    <t>-0.0072</t>
+  </si>
+  <si>
+    <t>(0.0404)</t>
+  </si>
+  <si>
+    <t>-0.0553*</t>
+  </si>
+  <si>
+    <t>(0.0299)</t>
+  </si>
+  <si>
+    <t>0.6327</t>
   </si>
 </sst>
 </file>
@@ -1517,4 +1803,381 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" t="s">
+        <v>182</v>
+      </c>
+      <c r="I13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>